--- a/example/Example.xlsx
+++ b/example/Example.xlsx
@@ -42,6 +42,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -125,14 +126,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -146,12 +147,12 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>0.575</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.298</v>
+        <v>-0.353</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.002</v>
@@ -160,12 +161,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>0.57</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.5885</v>
+        <v>-0.6785</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.002</v>
@@ -174,12 +175,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>0.565</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.8455</v>
+        <v>-0.8654</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.002</v>
@@ -207,14 +208,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -228,12 +229,12 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>0.57</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.1199</v>
+        <v>-0.2199</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.002</v>
@@ -242,12 +243,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>0.565</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.4147</v>
+        <v>-0.4577</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.002</v>
@@ -256,12 +257,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>0.56</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.6247</v>
+        <v>-0.6816</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.002</v>
@@ -270,12 +271,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>0.555</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.8045</v>
+        <v>-0.8183</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.002</v>
@@ -287,7 +288,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -303,14 +304,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C18" activeCellId="0" pane="topLeft" sqref="C18"/>
+      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -324,12 +325,12 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>0.56</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.0237</v>
+        <v>-0.123</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.001</v>
@@ -338,12 +339,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.364</v>
+        <v>-0.345</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.001</v>
@@ -352,12 +353,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>0.54</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.614</v>
+        <v>-0.678</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.001</v>
@@ -366,12 +367,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>0.53</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.7885</v>
+        <v>-0.789</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.002</v>
@@ -380,12 +381,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>0.525</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-0.8574</v>
+        <v>-0.891</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.002</v>
@@ -397,7 +398,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -413,14 +414,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -434,12 +435,12 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>0.54</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-0.1732</v>
+        <v>-0.1706</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.001</v>
@@ -448,12 +449,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>0.53</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>-0.3406</v>
+        <v>-0.3208</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.001</v>
@@ -462,12 +463,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>0.52</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-0.4522</v>
+        <v>-0.4416</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.001</v>
@@ -476,12 +477,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>0.51</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-0.5254</v>
+        <v>-0.5088</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.001</v>
@@ -490,12 +491,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-0.5895</v>
+        <v>-0.5834</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.001</v>
@@ -504,12 +505,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>0.49</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-0.6201</v>
+        <v>-0.6188</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.001</v>
@@ -518,12 +519,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>0.48</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-0.647</v>
+        <v>-0.6288</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.001</v>
@@ -532,12 +533,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>0.47</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-0.6655</v>
+        <v>-0.6582</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.002</v>
@@ -546,12 +547,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>0.46</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-0.68</v>
+        <v>-0.6684</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.002</v>
@@ -560,12 +561,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>0.45</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-0.685</v>
+        <v>-0.6802</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.005</v>
@@ -574,12 +575,12 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>0.44</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-0.6921</v>
+        <v>-0.6911</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.005</v>
@@ -591,7 +592,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
